--- a/docs/公众号名单_20251016.xlsx
+++ b/docs/公众号名单_20251016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\AI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43AC5B1-2A0F-494B-9EB5-AA615C6AB1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6FA88D-6FF3-43C1-892F-46D0127F6259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{388D21CC-0E3E-4FC3-AA67-9803B49B735C}"/>
   </bookViews>
@@ -416,53 +416,58 @@
     <t>MzU0NDQ0MzUxNQ%3D%3D</t>
   </si>
   <si>
+    <t>MzIwMjIxNzU5NA%3D%3D</t>
+  </si>
+  <si>
+    <t>MjM5MDU2MTc4NQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MzIxOTgyMjU2Nw%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MzkzMjcwMzI3OQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MzA5MzI3NjkyNA%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MzA3Mzg1NzkxMQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MzIzMjQwMDMyMA%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MzAxMTg1NDUzOA%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MjM5MTY2MzQwOQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mzg5ODg1Njk3OA%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mzg3OTIyNDk5MQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MzAwNTI5NjU3NQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MzA3NjI5MDI1OA%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MzA4NjU4MjYzNg%3D%3D</t>
-  </si>
-  <si>
-    <t>MzIwMjIxNzU5NA%3D%3D</t>
-  </si>
-  <si>
-    <t>MjM5MDU2MTc4NQ%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MzIxOTgyMjU2Nw%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MzkzMjcwMzI3OQ%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MzA5MzI3NjkyNA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MzA3Mzg1NzkxMQ%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MzIzMjQwMDMyMA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MzAxMTg1NDUzOA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MjM5MTY2MzQwOQ%3D%3D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D69174-58B8-4EB8-A2B5-C4FB9B376955}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,7 +972,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1069,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1103,7 +1108,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1120,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,7 +1176,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,7 +1346,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1358,7 +1363,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1375,7 +1380,7 @@
         <v>72</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1392,7 +1397,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1426,7 +1431,7 @@
         <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
